--- a/Income/SYF_inc.xlsx
+++ b/Income/SYF_inc.xlsx
@@ -1298,16 +1298,16 @@
         <v>1.1544</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.1293</v>
+        <v>1.0491</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1.0407</v>
+        <v>0.9757</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.9829</v>
+        <v>0.9272</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.9315</v>
+        <v>0.8823</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.8844</v>
@@ -1512,16 +1512,16 @@
         <v>0.1401</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.1318</v>
+        <v>0.1224</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.1771</v>
+        <v>0.166</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.2222</v>
+        <v>0.2096</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.2651</v>
+        <v>0.2511</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.2525</v>
@@ -1619,16 +1619,16 @@
         <v>0.1047</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1</v>
+        <v>0.0929</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1358</v>
+        <v>0.1273</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1701</v>
+        <v>0.1605</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2033</v>
+        <v>0.1925</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1927</v>
@@ -1726,16 +1726,16 @@
         <v>0.5837</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5749</v>
+        <v>0.534</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5598</v>
+        <v>0.5249</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4809</v>
+        <v>0.4536</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4877</v>
+        <v>0.4619</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4682</v>
@@ -2477,16 +2477,16 @@
         <v>0.5837</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.5749</v>
+        <v>0.534</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.5598</v>
+        <v>0.5249</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.4809</v>
+        <v>0.4536</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.4877</v>
+        <v>0.4619</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0.4682</v>
